--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H2">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>7.663221001629444</v>
+        <v>9.816881871483334</v>
       </c>
       <c r="R2">
-        <v>68.968989014665</v>
+        <v>88.35193684335</v>
       </c>
       <c r="S2">
-        <v>0.001297830784430246</v>
+        <v>0.001568969225321221</v>
       </c>
       <c r="T2">
-        <v>0.001297830784430246</v>
+        <v>0.001568969225321221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H3">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>31.55317105140034</v>
+        <v>32.78567736005001</v>
       </c>
       <c r="R3">
-        <v>283.978539462603</v>
+        <v>295.0710962404501</v>
       </c>
       <c r="S3">
-        <v>0.005343794303752067</v>
+        <v>0.005239924395815982</v>
       </c>
       <c r="T3">
-        <v>0.005343794303752067</v>
+        <v>0.005239924395815981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H4">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>15.92782284545711</v>
+        <v>23.94973488386666</v>
       </c>
       <c r="R4">
-        <v>143.350405609114</v>
+        <v>215.5476139548</v>
       </c>
       <c r="S4">
-        <v>0.002697510461122047</v>
+        <v>0.003827732418431466</v>
       </c>
       <c r="T4">
-        <v>0.002697510461122047</v>
+        <v>0.003827732418431465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H5">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>47.65133189897367</v>
+        <v>40.92933768761666</v>
       </c>
       <c r="R5">
-        <v>428.861987090763</v>
+        <v>368.36403918855</v>
       </c>
       <c r="S5">
-        <v>0.008070152934965746</v>
+        <v>0.006541473360415144</v>
       </c>
       <c r="T5">
-        <v>0.008070152934965746</v>
+        <v>0.006541473360415143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>10.99399464482111</v>
+        <v>13.55428417704156</v>
       </c>
       <c r="R6">
-        <v>98.94595180339</v>
+        <v>121.988557593374</v>
       </c>
       <c r="S6">
-        <v>0.001861925251911201</v>
+        <v>0.002166294249379946</v>
       </c>
       <c r="T6">
-        <v>0.001861925251911201</v>
+        <v>0.002166294249379945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
-        <v>45.26757005865534</v>
+        <v>45.26757005865535</v>
       </c>
       <c r="R7">
-        <v>407.408130527898</v>
+        <v>407.4081305278981</v>
       </c>
       <c r="S7">
-        <v>0.007666442863383914</v>
+        <v>0.007234825197745905</v>
       </c>
       <c r="T7">
-        <v>0.007666442863383913</v>
+        <v>0.007234825197745904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>22.85075675481378</v>
+        <v>33.06768043361244</v>
       </c>
       <c r="R8">
-        <v>205.656810793324</v>
+        <v>297.609123902512</v>
       </c>
       <c r="S8">
-        <v>0.003869967414174643</v>
+        <v>0.005284995137183536</v>
       </c>
       <c r="T8">
-        <v>0.003869967414174642</v>
+        <v>0.005284995137183536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>68.36270121982868</v>
+        <v>56.51161758476245</v>
       </c>
       <c r="R9">
-        <v>615.2643109784581</v>
+        <v>508.604558262862</v>
       </c>
       <c r="S9">
-        <v>0.0115777971340035</v>
+        <v>0.009031889150176413</v>
       </c>
       <c r="T9">
-        <v>0.0115777971340035</v>
+        <v>0.009031889150176413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H10">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>20.97264014889944</v>
+        <v>24.32530946727011</v>
       </c>
       <c r="R10">
-        <v>188.753761340095</v>
+        <v>218.927785205431</v>
       </c>
       <c r="S10">
-        <v>0.003551892606285506</v>
+        <v>0.0038877580936802</v>
       </c>
       <c r="T10">
-        <v>0.003551892606285506</v>
+        <v>0.003887758093680199</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H11">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>86.35445876831433</v>
+        <v>81.23982322675968</v>
       </c>
       <c r="R11">
-        <v>777.190128914829</v>
+        <v>731.1584090408371</v>
       </c>
       <c r="S11">
-        <v>0.01462485225709925</v>
+        <v>0.01298403955369817</v>
       </c>
       <c r="T11">
-        <v>0.01462485225709925</v>
+        <v>0.01298403955369817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H12">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>43.59113443578911</v>
+        <v>59.34518927048088</v>
       </c>
       <c r="R12">
-        <v>392.320209922102</v>
+        <v>534.1067034343279</v>
       </c>
       <c r="S12">
-        <v>0.00738252442242956</v>
+        <v>0.009484760727000434</v>
       </c>
       <c r="T12">
-        <v>0.00738252442242956</v>
+        <v>0.009484760727000434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H13">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N13">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q13">
-        <v>130.4117728459676</v>
+        <v>101.4190471654559</v>
       </c>
       <c r="R13">
-        <v>1173.705955613709</v>
+        <v>912.7714244891029</v>
       </c>
       <c r="S13">
-        <v>0.02208632811393966</v>
+        <v>0.01620915540669108</v>
       </c>
       <c r="T13">
-        <v>0.02208632811393966</v>
+        <v>0.01620915540669108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H14">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I14">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J14">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N14">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q14">
-        <v>400.5501669869383</v>
+        <v>523.7801263423003</v>
       </c>
       <c r="R14">
-        <v>3604.951502882445</v>
+        <v>4714.021137080703</v>
       </c>
       <c r="S14">
-        <v>0.06783653209450548</v>
+        <v>0.08371241600177846</v>
       </c>
       <c r="T14">
-        <v>0.06783653209450548</v>
+        <v>0.08371241600177845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H15">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I15">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J15">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
         <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q15">
-        <v>1649.257920516511</v>
+        <v>1749.28113169504</v>
       </c>
       <c r="R15">
-        <v>14843.3212846486</v>
+        <v>15743.53018525536</v>
       </c>
       <c r="S15">
-        <v>0.2793156689930528</v>
+        <v>0.2795763764905008</v>
       </c>
       <c r="T15">
-        <v>0.2793156689930527</v>
+        <v>0.2795763764905007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H16">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I16">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J16">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N16">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q16">
-        <v>832.5340087581513</v>
+        <v>1277.839066167842</v>
       </c>
       <c r="R16">
-        <v>7492.806078823362</v>
+        <v>11500.55159551058</v>
       </c>
       <c r="S16">
-        <v>0.140996620797143</v>
+        <v>0.2042288168460575</v>
       </c>
       <c r="T16">
-        <v>0.140996620797143</v>
+        <v>0.2042288168460575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H17">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I17">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J17">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N17">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q17">
-        <v>2490.695354502431</v>
+        <v>2183.786455391792</v>
       </c>
       <c r="R17">
-        <v>22416.25819052188</v>
+        <v>19654.07809852613</v>
       </c>
       <c r="S17">
-        <v>0.4218201595678016</v>
+        <v>0.3490205737461239</v>
       </c>
       <c r="T17">
-        <v>0.4218201595678015</v>
+        <v>0.3490205737461239</v>
       </c>
     </row>
   </sheetData>
